--- a/docs/ROS2_기능요구사항명세서.xlsx
+++ b/docs/ROS2_기능요구사항명세서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mineh\바탕 화면\컴소 과제\객체지향모델링\팀플\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\ROS2-Project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F18468-C629-4A73-9AD6-694DCF8E9FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A5B7AF-077C-45E6-A434-1EE372087D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="기본 정보" sheetId="7" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="142">
   <si>
     <t>ID</t>
   </si>
@@ -673,9 +673,6 @@
   <si>
     <t>주행 중 사용자에게 주행 시간을 보여준다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구현</t>
   </si>
 </sst>
 </file>
@@ -1511,9 +1508,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1551,7 +1548,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1657,7 +1654,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1799,7 +1796,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1816,13 +1813,13 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="18.75" customWidth="1"/>
-    <col min="2" max="7" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="18.69921875" customWidth="1"/>
+    <col min="2" max="7" width="14.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="35.65" customHeight="1">
+    <row r="1" spans="1:7" ht="35.700000000000003" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>31</v>
       </c>
@@ -1835,7 +1832,7 @@
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
     </row>
-    <row r="2" spans="1:7" ht="35.65" customHeight="1">
+    <row r="2" spans="1:7" ht="35.700000000000003" customHeight="1">
       <c r="A2" s="17" t="s">
         <v>32</v>
       </c>
@@ -1848,7 +1845,7 @@
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
     </row>
-    <row r="3" spans="1:7" ht="35.65" customHeight="1">
+    <row r="3" spans="1:7" ht="35.700000000000003" customHeight="1">
       <c r="A3" s="17" t="s">
         <v>66</v>
       </c>
@@ -1861,7 +1858,7 @@
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
     </row>
-    <row r="4" spans="1:7" ht="35.65" customHeight="1">
+    <row r="4" spans="1:7" ht="35.700000000000003" customHeight="1">
       <c r="A4" s="17" t="s">
         <v>33</v>
       </c>
@@ -1874,7 +1871,7 @@
       <c r="F4" s="28"/>
       <c r="G4" s="28"/>
     </row>
-    <row r="5" spans="1:7" ht="35.65" customHeight="1">
+    <row r="5" spans="1:7" ht="35.700000000000003" customHeight="1">
       <c r="A5" s="29" t="s">
         <v>80</v>
       </c>
@@ -1889,7 +1886,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="35.65" customHeight="1">
+    <row r="6" spans="1:7" ht="35.700000000000003" customHeight="1">
       <c r="A6" s="30"/>
       <c r="B6" s="35" t="s">
         <v>126</v>
@@ -1902,7 +1899,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="35.65" customHeight="1">
+    <row r="7" spans="1:7" ht="35.700000000000003" customHeight="1">
       <c r="A7" s="30"/>
       <c r="B7" s="35" t="s">
         <v>127</v>
@@ -1913,7 +1910,7 @@
       <c r="F7" s="37"/>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:7" ht="35.65" customHeight="1">
+    <row r="8" spans="1:7" ht="35.700000000000003" customHeight="1">
       <c r="A8" s="30"/>
       <c r="B8" s="35" t="s">
         <v>128</v>
@@ -1924,7 +1921,7 @@
       <c r="F8" s="37"/>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" ht="35.65" customHeight="1">
+    <row r="9" spans="1:7" ht="35.700000000000003" customHeight="1">
       <c r="A9" s="30"/>
       <c r="B9" s="35" t="s">
         <v>129</v>
@@ -1935,7 +1932,7 @@
       <c r="F9" s="37"/>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7" ht="35.65" customHeight="1">
+    <row r="10" spans="1:7" ht="35.700000000000003" customHeight="1">
       <c r="A10" s="31"/>
       <c r="B10" s="35" t="s">
         <v>130</v>
@@ -2028,21 +2025,21 @@
   <dimension ref="A1:I132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
+      <pane ySplit="9" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="1"/>
-    <col min="2" max="2" width="41.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.59765625" style="1"/>
+    <col min="2" max="2" width="41.69921875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.09765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
-    <col min="7" max="7" width="13.25" customWidth="1"/>
-    <col min="8" max="8" width="13.625" customWidth="1"/>
-    <col min="9" max="9" width="13.125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.69921875" customWidth="1"/>
+    <col min="7" max="7" width="13.19921875" customWidth="1"/>
+    <col min="8" max="8" width="13.59765625" customWidth="1"/>
+    <col min="9" max="9" width="13.09765625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" hidden="1">
@@ -2051,37 +2048,37 @@
       </c>
       <c r="C1" s="13">
         <f>SUM($C$10:$C$118)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>55</v>
       </c>
       <c r="E1" s="13">
         <f>SUMIF($E$10:$E$118, "완료", $C$10:$C$118)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>56</v>
       </c>
       <c r="G1" s="13">
         <f>SUMIF($G$10:$G$118,TRUE,$C$10:$C$118)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="33" hidden="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="34.799999999999997" hidden="1">
       <c r="B2" s="12" t="s">
         <v>75</v>
       </c>
       <c r="C2" s="13">
         <f>COUNTA($A$10:$A$118)-COUNTIF($C$10:$C$118, 0)-COUNTIF($C$10:$C$118, -1)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>65</v>
       </c>
       <c r="E2" s="13">
         <f>SUMIFS($C$10:$C$118, $E$10:$E$118, "완료", $G$10:$G$118, TRUE)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="13"/>
@@ -2092,7 +2089,7 @@
       </c>
       <c r="C3" s="13">
         <f>COUNTIF($E$10:$E$118, "완료")</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -2101,7 +2098,7 @@
       </c>
       <c r="G3" s="13">
         <f>G1+E1-E2</f>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:9" hidden="1">
@@ -2123,14 +2120,14 @@
       </c>
       <c r="C5" s="13">
         <f>SUMIF(G10:G125, "TRUE", C10:C125)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="14"/>
       <c r="G5" s="13"/>
     </row>
-    <row r="7" spans="1:9" ht="17.649999999999999" customHeight="1">
+    <row r="7" spans="1:9" ht="17.7" customHeight="1">
       <c r="B7" s="41" t="s">
         <v>89</v>
       </c>
@@ -2198,7 +2195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="33">
+    <row r="11" spans="1:9" ht="34.799999999999997">
       <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
@@ -2227,7 +2224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="33">
+    <row r="12" spans="1:9" ht="34.799999999999997">
       <c r="A12" s="8" t="s">
         <v>26</v>
       </c>
@@ -2256,7 +2253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="33">
+    <row r="13" spans="1:9" ht="34.799999999999997">
       <c r="A13" s="8" t="s">
         <v>27</v>
       </c>
@@ -2285,7 +2282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="33">
+    <row r="14" spans="1:9" ht="34.799999999999997">
       <c r="A14" s="8" t="s">
         <v>96</v>
       </c>
@@ -2314,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="33">
+    <row r="15" spans="1:9" ht="34.799999999999997">
       <c r="A15" s="8" t="s">
         <v>112</v>
       </c>
@@ -2343,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="33">
+    <row r="16" spans="1:9" ht="34.799999999999997">
       <c r="A16" s="8" t="s">
         <v>113</v>
       </c>
@@ -2372,7 +2369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="33">
+    <row r="17" spans="1:9" ht="34.799999999999997">
       <c r="A17" s="8" t="s">
         <v>114</v>
       </c>
@@ -2426,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="33">
+    <row r="19" spans="1:9" ht="34.799999999999997">
       <c r="A19" s="8" t="s">
         <v>123</v>
       </c>
@@ -2463,13 +2460,13 @@
         <v>141</v>
       </c>
       <c r="C20" s="8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>76</v>
@@ -2484,7 +2481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="33">
+    <row r="21" spans="1:9" ht="34.799999999999997">
       <c r="A21" s="8" t="s">
         <v>125</v>
       </c>
@@ -2596,7 +2593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="33">
+    <row r="25" spans="1:9" ht="34.799999999999997">
       <c r="A25" s="8" t="s">
         <v>119</v>
       </c>
@@ -2625,7 +2622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="33">
+    <row r="26" spans="1:9" ht="34.799999999999997">
       <c r="A26" s="8" t="s">
         <v>120</v>
       </c>
@@ -2654,7 +2651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="33">
+    <row r="27" spans="1:9" ht="34.799999999999997">
       <c r="A27" s="8" t="s">
         <v>121</v>
       </c>
@@ -4376,9 +4373,9 @@
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="15" max="15" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
